--- a/biology/Zoologie/Hexapodibius/Hexapodibius.xlsx
+++ b/biology/Zoologie/Hexapodibius/Hexapodibius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexapodibius est un genre de tardigrades de la famille des Hexapodibiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2016[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2016 :
 Hexapodibius bindae Pilato, 1982
 Hexapodibius boothi Dastych &amp; McInnes, 1994
 Hexapodibius christenberryae Pilato &amp; Binda, 2003
@@ -547,9 +561,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été déplacé des Calohypsibiidae aux Isohypsibiidae par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014[2] puis aux Hexapodibiidae par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti  en 2016[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été déplacé des Calohypsibiidae aux Isohypsibiidae par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014 puis aux Hexapodibiidae par Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi et Guidetti  en 2016.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pilato, 1969 : Su un interessante Tardigrado esapodo delle dunecostiere siciliane: Hexapodibius micronyx n. gen. n. sp. Bollettino delle sedute dell’Accademia Gioenia di Scienze Naturali, Catania, sér. 4, vol. 10, p. 619-622.</t>
         </is>
